--- a/tagging/data_raw/MINIPAT_36353_CSC.xlsx
+++ b/tagging/data_raw/MINIPAT_36353_CSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadziobervoets/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D97231D-B4B2-C146-B6B4-B450ED361FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B62011E-559D-2C4A-97B9-B53AA9CA7970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>DTPNG</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Mean Depth (m)</t>
+  </si>
+  <si>
+    <t>MinD</t>
+  </si>
+  <si>
+    <t>MaxD</t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -140,6 +146,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -455,12 +464,12 @@
     <col min="3" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -477,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -494,7 +503,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -511,7 +520,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -528,12 +537,12 @@
         <v>45982</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -552,8 +561,14 @@
       <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -572,8 +587,14 @@
       <c r="F9" s="7">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -592,8 +613,14 @@
       <c r="F10" s="7">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -612,8 +639,14 @@
       <c r="F11" s="7">
         <v>172.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>207.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -632,8 +665,14 @@
       <c r="F12" s="7">
         <v>117.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>140.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -652,8 +691,14 @@
       <c r="F13" s="7">
         <v>147.19999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3">
+        <v>117.8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>176.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -672,8 +717,14 @@
       <c r="F14" s="7">
         <v>126.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3">
+        <v>101</v>
+      </c>
+      <c r="H14" s="3">
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -692,8 +743,14 @@
       <c r="F15" s="7">
         <v>119.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -712,8 +769,14 @@
       <c r="F16" s="7">
         <v>155.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="3">
+        <v>124.7</v>
+      </c>
+      <c r="H16" s="3">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -732,8 +795,14 @@
       <c r="F17" s="7">
         <v>150.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>180.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -752,8 +821,14 @@
       <c r="F18" s="7">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>26</v>
+      </c>
+      <c r="H18" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -772,8 +847,14 @@
       <c r="F19" s="7">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H19" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -792,8 +873,14 @@
       <c r="F20" s="7">
         <v>145.69999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>174.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -812,8 +899,14 @@
       <c r="F21" s="7">
         <v>117.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="H21" s="3">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -832,8 +925,14 @@
       <c r="F22" s="7">
         <v>115.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -851,6 +950,12 @@
       </c>
       <c r="F23" s="7">
         <v>2.1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
